--- a/NformTester/NformTester/keywordscripts/TST938_ConfigurationOnDevice_properties.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST938_ConfigurationOnDevice_properties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="854">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3593,9 +3593,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3686,9 +3683,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"10.146.85.10"</t>
-  </si>
-  <si>
     <t>"ABC GXT UPS"</t>
   </si>
   <si>
@@ -3704,9 +3698,6 @@
     <t>"ABC GXT UPS_10"</t>
   </si>
   <si>
-    <t>"10.146.80.10"</t>
-  </si>
-  <si>
     <t>"123456789123456789123456789123456789"</t>
   </si>
   <si>
@@ -3731,12 +3722,6 @@
     <t>;Verify that device is polled.</t>
   </si>
   <si>
-    <t>"10.146.85.20"</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_20"</t>
-  </si>
-  <si>
     <t>;Create another device, Disabled the status polling for it.</t>
   </si>
   <si>
@@ -3753,9 +3738,6 @@
   </si>
   <si>
     <t>;Sceniaro--Create a device successfully with invalid hostname.</t>
-  </si>
-  <si>
-    <t>"10.146.80.300"</t>
   </si>
   <si>
     <t>"ABC GXT UPS_300"</t>
@@ -3800,6 +3782,42 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10.146.88.10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10.146.88.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10.146.88.12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS_12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS_12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10.146.88.300"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10.146.88.254"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4751,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4824,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4843,13 +4861,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4859,13 +4877,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4884,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4915,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4940,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -4971,7 +4989,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4996,13 +5014,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>396</v>
@@ -5033,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>396</v>
@@ -5045,10 +5063,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="J9" s="5" t="b">
         <v>0</v>
@@ -5066,7 +5084,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>396</v>
@@ -5078,10 +5096,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>1</v>
@@ -5101,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>396</v>
@@ -5130,7 +5148,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>396</v>
@@ -5159,7 +5177,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>396</v>
@@ -5188,7 +5206,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5211,7 +5229,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>577</v>
@@ -5221,22 +5239,22 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>802</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="2"/>
@@ -5250,7 +5268,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>756</v>
@@ -5277,7 +5295,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5300,7 +5318,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>19</v>
@@ -5331,7 +5349,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>19</v>
@@ -5360,10 +5378,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>183</v>
@@ -5389,10 +5407,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>166</v>
@@ -5414,10 +5432,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>381</v>
@@ -5426,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5441,10 +5459,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>607</v>
@@ -5466,10 +5484,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>166</v>
@@ -5491,7 +5509,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>756</v>
@@ -5514,10 +5532,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>256</v>
@@ -5526,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5541,10 +5559,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>255</v>
@@ -5553,7 +5571,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5568,10 +5586,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>519</v>
@@ -5580,7 +5598,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5595,10 +5613,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>608</v>
@@ -5607,7 +5625,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5622,10 +5640,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>609</v>
@@ -5647,10 +5665,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>526</v>
@@ -5672,10 +5690,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>256</v>
@@ -5684,7 +5702,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5699,10 +5717,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>531</v>
@@ -5724,10 +5742,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>529</v>
@@ -5749,10 +5767,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>530</v>
@@ -5774,10 +5792,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>537</v>
@@ -5799,10 +5817,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>360</v>
@@ -5811,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5826,10 +5844,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>480</v>
@@ -5838,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5853,10 +5871,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>523</v>
@@ -5878,10 +5896,10 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>542</v>
@@ -5903,10 +5921,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>543</v>
@@ -5915,7 +5933,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5930,10 +5948,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>544</v>
@@ -5955,10 +5973,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>545</v>
@@ -5967,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -5982,10 +6000,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6007,10 +6025,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>603</v>
@@ -6032,7 +6050,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>756</v>
@@ -6055,7 +6073,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>621</v>
@@ -6080,7 +6098,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>621</v>
@@ -6105,7 +6123,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -6124,10 +6142,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>183</v>
@@ -6149,10 +6167,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>166</v>
@@ -6174,10 +6192,10 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>381</v>
@@ -6186,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6201,10 +6219,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>607</v>
@@ -6226,10 +6244,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>166</v>
@@ -6251,7 +6269,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>756</v>
@@ -6274,10 +6292,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>256</v>
@@ -6286,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6301,10 +6319,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>255</v>
@@ -6313,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -6328,10 +6346,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>519</v>
@@ -6340,7 +6358,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6355,10 +6373,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>608</v>
@@ -6367,7 +6385,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6382,10 +6400,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>609</v>
@@ -6407,10 +6425,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>526</v>
@@ -6432,10 +6450,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>256</v>
@@ -6444,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6459,10 +6477,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>531</v>
@@ -6484,10 +6502,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>529</v>
@@ -6509,10 +6527,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>530</v>
@@ -6534,10 +6552,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>537</v>
@@ -6559,10 +6577,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>360</v>
@@ -6571,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -6586,10 +6604,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>480</v>
@@ -6598,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -6613,10 +6631,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>523</v>
@@ -6638,10 +6656,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>542</v>
@@ -6663,10 +6681,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>543</v>
@@ -6675,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6690,10 +6708,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>544</v>
@@ -6715,10 +6733,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>545</v>
@@ -6727,7 +6745,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -6742,10 +6760,10 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>17</v>
@@ -6767,10 +6785,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>603</v>
@@ -6792,7 +6810,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>756</v>
@@ -6815,7 +6833,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>621</v>
@@ -6840,7 +6858,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>621</v>
@@ -6865,7 +6883,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -6884,10 +6902,10 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>183</v>
@@ -6909,10 +6927,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>166</v>
@@ -6934,10 +6952,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>381</v>
@@ -6946,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>820</v>
+        <v>853</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -6961,10 +6979,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>607</v>
@@ -6986,10 +7004,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>166</v>
@@ -7011,7 +7029,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>756</v>
@@ -7034,10 +7052,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>256</v>
@@ -7046,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7061,10 +7079,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>255</v>
@@ -7073,7 +7091,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7088,10 +7106,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>519</v>
@@ -7100,7 +7118,7 @@
         <v>13</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7115,10 +7133,10 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>608</v>
@@ -7127,7 +7145,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -7142,10 +7160,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>609</v>
@@ -7167,10 +7185,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>526</v>
@@ -7192,10 +7210,10 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>256</v>
@@ -7204,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -7219,7 +7237,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -7238,10 +7256,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>530</v>
@@ -7250,10 +7268,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J94" s="5" t="b">
         <v>1</v>
@@ -7269,7 +7287,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>756</v>
@@ -7292,10 +7310,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>530</v>
@@ -7317,10 +7335,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>529</v>
@@ -7342,10 +7360,10 @@
         <v>97</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>531</v>
@@ -7367,10 +7385,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>537</v>
@@ -7392,10 +7410,10 @@
         <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>360</v>
@@ -7404,7 +7422,7 @@
         <v>4</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -7419,10 +7437,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>480</v>
@@ -7431,7 +7449,7 @@
         <v>4</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -7446,10 +7464,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>523</v>
@@ -7471,10 +7489,10 @@
         <v>102</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>542</v>
@@ -7496,10 +7514,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>543</v>
@@ -7508,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -7523,10 +7541,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>544</v>
@@ -7548,10 +7566,10 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>545</v>
@@ -7560,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -7575,10 +7593,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>17</v>
@@ -7587,10 +7605,10 @@
         <v>7</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J107" s="5" t="b">
         <v>0</v>
@@ -7606,10 +7624,10 @@
         <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>256</v>
@@ -7618,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -7633,10 +7651,10 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>17</v>
@@ -7645,10 +7663,10 @@
         <v>7</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J109" s="5" t="b">
         <v>1</v>
@@ -7664,10 +7682,10 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>17</v>
@@ -7689,10 +7707,10 @@
         <v>110</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>603</v>
@@ -7714,7 +7732,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>622</v>
@@ -7739,7 +7757,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="5"/>
@@ -7758,7 +7776,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>19</v>
@@ -7770,10 +7788,10 @@
         <v>7</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J114" s="5">
         <v>1</v>
@@ -7789,7 +7807,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
@@ -7801,10 +7819,10 @@
         <v>7</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J115" s="5">
         <v>1</v>
@@ -7820,7 +7838,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>756</v>
@@ -7843,10 +7861,10 @@
         <v>116</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>578</v>
@@ -7855,7 +7873,7 @@
         <v>60</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -7870,10 +7888,10 @@
         <v>117</v>
       </c>
       <c r="D118" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>578</v>
@@ -7882,7 +7900,7 @@
         <v>59</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -7897,7 +7915,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -7916,10 +7934,10 @@
         <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>183</v>
@@ -7941,10 +7959,10 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>166</v>
@@ -7966,10 +7984,10 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>381</v>
@@ -7978,7 +7996,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -7993,10 +8011,10 @@
         <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>607</v>
@@ -8018,10 +8036,10 @@
         <v>123</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>166</v>
@@ -8043,7 +8061,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>756</v>
@@ -8066,10 +8084,10 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>256</v>
@@ -8078,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -8093,10 +8111,10 @@
         <v>126</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>255</v>
@@ -8105,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -8120,10 +8138,10 @@
         <v>127</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>519</v>
@@ -8132,7 +8150,7 @@
         <v>13</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
@@ -8147,10 +8165,10 @@
         <v>128</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>608</v>
@@ -8159,7 +8177,7 @@
         <v>13</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -8174,10 +8192,10 @@
         <v>129</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>609</v>
@@ -8199,10 +8217,10 @@
         <v>130</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>526</v>
@@ -8224,10 +8242,10 @@
         <v>131</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>256</v>
@@ -8236,7 +8254,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -8251,10 +8269,10 @@
         <v>132</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>529</v>
@@ -8276,10 +8294,10 @@
         <v>133</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>537</v>
@@ -8301,10 +8319,10 @@
         <v>134</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>360</v>
@@ -8313,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -8328,10 +8346,10 @@
         <v>135</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>480</v>
@@ -8340,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -8355,10 +8373,10 @@
         <v>136</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>523</v>
@@ -8380,10 +8398,10 @@
         <v>137</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>542</v>
@@ -8405,10 +8423,10 @@
         <v>138</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>543</v>
@@ -8417,7 +8435,7 @@
         <v>4</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -8432,10 +8450,10 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>544</v>
@@ -8457,10 +8475,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>545</v>
@@ -8469,7 +8487,7 @@
         <v>4</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -8484,10 +8502,10 @@
         <v>141</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>17</v>
@@ -8509,10 +8527,10 @@
         <v>142</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>603</v>
@@ -8534,7 +8552,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>756</v>
@@ -8557,7 +8575,7 @@
         <v>144</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>622</v>
@@ -8582,10 +8600,10 @@
         <v>145</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>99</v>
@@ -8607,7 +8625,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
@@ -8626,7 +8644,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>19</v>
@@ -8651,7 +8669,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>19</v>
@@ -8676,7 +8694,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>396</v>
@@ -8701,7 +8719,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>396</v>
@@ -8713,10 +8731,10 @@
         <v>7</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J151" s="5" t="b">
         <v>1</v>
@@ -8732,7 +8750,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>396</v>
@@ -8757,7 +8775,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>396</v>
@@ -8782,7 +8800,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
@@ -8801,7 +8819,7 @@
         <v>154</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>19</v>
@@ -8813,10 +8831,10 @@
         <v>7</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J155" s="5">
         <v>3</v>
@@ -8832,7 +8850,7 @@
         <v>155</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>19</v>
@@ -8844,10 +8862,10 @@
         <v>7</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J156" s="5">
         <v>0</v>
@@ -8863,7 +8881,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
@@ -8882,7 +8900,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>19</v>
@@ -8907,7 +8925,7 @@
         <v>158</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>19</v>
@@ -8932,7 +8950,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>396</v>
@@ -8957,7 +8975,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>396</v>
@@ -8969,10 +8987,10 @@
         <v>7</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J161" s="5" t="b">
         <v>1</v>
@@ -8988,7 +9006,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>396</v>
@@ -9013,7 +9031,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>396</v>
@@ -9038,13 +9056,13 @@
         <v>163</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>756</v>
       </c>
       <c r="F164" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
@@ -9061,7 +9079,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
@@ -9080,7 +9098,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>19</v>
@@ -9092,10 +9110,10 @@
         <v>7</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J166" s="5">
         <v>2</v>
@@ -9111,7 +9129,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>19</v>
@@ -9123,10 +9141,10 @@
         <v>7</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J167" s="5">
         <v>1</v>
@@ -9142,7 +9160,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -9161,7 +9179,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>19</v>
@@ -9186,7 +9204,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>19</v>
@@ -9211,10 +9229,10 @@
         <v>170</v>
       </c>
       <c r="D171" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>183</v>
@@ -9236,10 +9254,10 @@
         <v>171</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>166</v>
@@ -9261,10 +9279,10 @@
         <v>172</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>381</v>
@@ -9273,7 +9291,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -9288,10 +9306,10 @@
         <v>173</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>607</v>
@@ -9313,10 +9331,10 @@
         <v>174</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>166</v>
@@ -9338,7 +9356,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>756</v>
@@ -9361,7 +9379,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>601</v>
@@ -9386,7 +9404,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>601</v>
@@ -9410,10 +9428,10 @@
         <v>178</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>256</v>
@@ -9422,7 +9440,7 @@
         <v>4</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -9436,10 +9454,10 @@
         <v>179</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>255</v>
@@ -9448,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -9462,10 +9480,10 @@
         <v>180</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>519</v>
@@ -9474,7 +9492,7 @@
         <v>13</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -9488,10 +9506,10 @@
         <v>181</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>608</v>
@@ -9500,7 +9518,7 @@
         <v>13</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -9514,10 +9532,10 @@
         <v>182</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>609</v>
@@ -9538,10 +9556,10 @@
         <v>183</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>526</v>
@@ -9562,10 +9580,10 @@
         <v>184</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>256</v>
@@ -9574,7 +9592,7 @@
         <v>4</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -9588,10 +9606,10 @@
         <v>185</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>529</v>
@@ -9612,10 +9630,10 @@
         <v>186</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>537</v>
@@ -9636,10 +9654,10 @@
         <v>187</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>360</v>
@@ -9648,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -9662,10 +9680,10 @@
         <v>188</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>480</v>
@@ -9674,7 +9692,7 @@
         <v>4</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -9688,10 +9706,10 @@
         <v>189</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>523</v>
@@ -9712,10 +9730,10 @@
         <v>190</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>542</v>
@@ -9736,10 +9754,10 @@
         <v>191</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>543</v>
@@ -9748,7 +9766,7 @@
         <v>4</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
@@ -9762,10 +9780,10 @@
         <v>192</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>544</v>
@@ -9786,10 +9804,10 @@
         <v>193</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>545</v>
@@ -9798,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -9812,10 +9830,10 @@
         <v>194</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>17</v>
@@ -9836,10 +9854,10 @@
         <v>195</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>603</v>
@@ -9860,7 +9878,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>756</v>
@@ -9882,7 +9900,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>600</v>
@@ -9906,7 +9924,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>622</v>
@@ -9930,10 +9948,10 @@
         <v>199</v>
       </c>
       <c r="D200" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E200" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>99</v>
@@ -9954,7 +9972,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
@@ -9972,7 +9990,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E202" s="11" t="s">
         <v>19</v>
@@ -9996,7 +10014,7 @@
         <v>202</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>19</v>
@@ -10020,10 +10038,10 @@
         <v>203</v>
       </c>
       <c r="D204" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E204" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>578</v>
@@ -10048,10 +10066,10 @@
         <v>204</v>
       </c>
       <c r="D205" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E205" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>184</v>
@@ -10072,7 +10090,7 @@
         <v>205</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E206" s="11" t="s">
         <v>585</v>
@@ -10096,10 +10114,10 @@
         <v>206</v>
       </c>
       <c r="D207" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>578</v>
@@ -10124,10 +10142,10 @@
         <v>207</v>
       </c>
       <c r="D208" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E208" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>184</v>
@@ -10148,7 +10166,7 @@
         <v>208</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>585</v>
@@ -10172,10 +10190,10 @@
         <v>209</v>
       </c>
       <c r="D210" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E210" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>578</v>
@@ -10200,10 +10218,10 @@
         <v>210</v>
       </c>
       <c r="D211" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E211" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>184</v>
@@ -10224,7 +10242,7 @@
         <v>211</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>585</v>
@@ -10248,10 +10266,10 @@
         <v>212</v>
       </c>
       <c r="D213" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E213" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>578</v>
@@ -10276,10 +10294,10 @@
         <v>213</v>
       </c>
       <c r="D214" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E214" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E214" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>184</v>
@@ -10300,7 +10318,7 @@
         <v>214</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E215" s="11" t="s">
         <v>585</v>
@@ -10324,10 +10342,10 @@
         <v>215</v>
       </c>
       <c r="D216" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E216" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>99</v>
@@ -32480,27 +32498,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST938_ConfigurationOnDevice_properties.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST938_ConfigurationOnDevice_properties.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="851">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3651,10 +3651,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3683,9 +3679,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -3784,39 +3777,33 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10.146.88.10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10.146.88.11"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10.146.88.12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10.146.88.300"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"10.146.88.254"</t>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>$GXT_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_5$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_5_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_4$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4769,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4861,7 +4848,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4902,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4933,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5014,7 +5001,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5063,10 +5050,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J9" s="5" t="b">
         <v>0</v>
@@ -5096,10 +5083,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>1</v>
@@ -5242,16 +5229,16 @@
         <v>799</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>845</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>800</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>801</v>
@@ -5295,7 +5282,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5443,8 +5430,8 @@
       <c r="G22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>846</v>
+      <c r="H22" s="5" t="s">
+        <v>844</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5544,7 +5531,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5571,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5598,7 +5585,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5625,7 +5612,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5668,7 +5655,7 @@
         <v>802</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>526</v>
@@ -5693,7 +5680,7 @@
         <v>802</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>256</v>
@@ -5701,8 +5688,8 @@
       <c r="G32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>817</v>
+      <c r="H32" s="5" t="s">
+        <v>845</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5720,7 +5707,7 @@
         <v>802</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>531</v>
@@ -5745,7 +5732,7 @@
         <v>802</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>529</v>
@@ -5770,7 +5757,7 @@
         <v>802</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>530</v>
@@ -5795,7 +5782,7 @@
         <v>802</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>537</v>
@@ -5820,7 +5807,7 @@
         <v>802</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>360</v>
@@ -5829,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5847,7 +5834,7 @@
         <v>802</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>480</v>
@@ -5856,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5874,7 +5861,7 @@
         <v>802</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>523</v>
@@ -5899,7 +5886,7 @@
         <v>802</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>542</v>
@@ -5924,7 +5911,7 @@
         <v>802</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>543</v>
@@ -5933,7 +5920,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5951,7 +5938,7 @@
         <v>802</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>544</v>
@@ -5976,7 +5963,7 @@
         <v>802</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>545</v>
@@ -5985,7 +5972,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -6003,7 +5990,7 @@
         <v>802</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6123,7 +6110,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -6204,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6303,8 +6290,8 @@
       <c r="G56" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>805</v>
+      <c r="H56" s="5" t="s">
+        <v>845</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6331,7 +6318,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -6358,7 +6345,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6385,7 +6372,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6428,7 +6415,7 @@
         <v>802</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>526</v>
@@ -6453,7 +6440,7 @@
         <v>802</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>256</v>
@@ -6461,8 +6448,8 @@
       <c r="G62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>805</v>
+      <c r="H62" s="5" t="s">
+        <v>845</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6480,7 +6467,7 @@
         <v>802</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>531</v>
@@ -6505,7 +6492,7 @@
         <v>802</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>529</v>
@@ -6530,7 +6517,7 @@
         <v>802</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>530</v>
@@ -6555,7 +6542,7 @@
         <v>802</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>537</v>
@@ -6580,7 +6567,7 @@
         <v>802</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>360</v>
@@ -6589,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -6607,7 +6594,7 @@
         <v>802</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>480</v>
@@ -6616,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -6634,7 +6621,7 @@
         <v>802</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>523</v>
@@ -6659,7 +6646,7 @@
         <v>802</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>542</v>
@@ -6684,7 +6671,7 @@
         <v>802</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>543</v>
@@ -6693,7 +6680,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6711,7 +6698,7 @@
         <v>802</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>544</v>
@@ -6736,7 +6723,7 @@
         <v>802</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>545</v>
@@ -6745,7 +6732,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -6763,7 +6750,7 @@
         <v>802</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>17</v>
@@ -6883,7 +6870,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -6964,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7064,7 +7051,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7091,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7118,7 +7105,7 @@
         <v>13</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7145,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -7188,7 +7175,7 @@
         <v>802</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>526</v>
@@ -7213,7 +7200,7 @@
         <v>802</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>256</v>
@@ -7237,7 +7224,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -7259,7 +7246,7 @@
         <v>802</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>530</v>
@@ -7268,10 +7255,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J94" s="5" t="b">
         <v>1</v>
@@ -7313,7 +7300,7 @@
         <v>802</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>530</v>
@@ -7338,7 +7325,7 @@
         <v>802</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>529</v>
@@ -7363,7 +7350,7 @@
         <v>802</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>531</v>
@@ -7388,7 +7375,7 @@
         <v>802</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>537</v>
@@ -7413,7 +7400,7 @@
         <v>802</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>360</v>
@@ -7422,7 +7409,7 @@
         <v>4</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -7440,7 +7427,7 @@
         <v>802</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>480</v>
@@ -7449,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -7467,7 +7454,7 @@
         <v>802</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>523</v>
@@ -7492,7 +7479,7 @@
         <v>802</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>542</v>
@@ -7517,7 +7504,7 @@
         <v>802</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>543</v>
@@ -7526,7 +7513,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -7544,7 +7531,7 @@
         <v>802</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>544</v>
@@ -7569,7 +7556,7 @@
         <v>802</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>545</v>
@@ -7578,7 +7565,7 @@
         <v>4</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -7596,7 +7583,7 @@
         <v>802</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>17</v>
@@ -7605,10 +7592,10 @@
         <v>7</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J107" s="5" t="b">
         <v>0</v>
@@ -7627,7 +7614,7 @@
         <v>802</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>256</v>
@@ -7636,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -7654,7 +7641,7 @@
         <v>802</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>17</v>
@@ -7663,10 +7650,10 @@
         <v>7</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J109" s="5" t="b">
         <v>1</v>
@@ -7685,7 +7672,7 @@
         <v>802</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>17</v>
@@ -7757,7 +7744,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="5"/>
@@ -7791,7 +7778,7 @@
         <v>797</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J114" s="5">
         <v>1</v>
@@ -7822,7 +7809,7 @@
         <v>797</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J115" s="5">
         <v>1</v>
@@ -7873,7 +7860,7 @@
         <v>60</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -7900,7 +7887,7 @@
         <v>59</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -7915,7 +7902,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -7996,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -8096,7 +8083,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -8123,7 +8110,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -8150,7 +8137,7 @@
         <v>13</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
@@ -8177,7 +8164,7 @@
         <v>13</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -8220,7 +8207,7 @@
         <v>802</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>526</v>
@@ -8245,7 +8232,7 @@
         <v>802</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>256</v>
@@ -8254,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -8272,7 +8259,7 @@
         <v>802</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>529</v>
@@ -8297,7 +8284,7 @@
         <v>802</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>537</v>
@@ -8322,7 +8309,7 @@
         <v>802</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>360</v>
@@ -8331,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -8349,7 +8336,7 @@
         <v>802</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>480</v>
@@ -8358,7 +8345,7 @@
         <v>4</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -8376,7 +8363,7 @@
         <v>802</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>523</v>
@@ -8401,7 +8388,7 @@
         <v>802</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>542</v>
@@ -8426,7 +8413,7 @@
         <v>802</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>543</v>
@@ -8435,7 +8422,7 @@
         <v>4</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -8453,7 +8440,7 @@
         <v>802</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>544</v>
@@ -8478,7 +8465,7 @@
         <v>802</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>545</v>
@@ -8487,7 +8474,7 @@
         <v>4</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -8505,7 +8492,7 @@
         <v>802</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>17</v>
@@ -8625,7 +8612,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
@@ -8731,10 +8718,10 @@
         <v>7</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J151" s="5" t="b">
         <v>1</v>
@@ -8800,7 +8787,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
@@ -8834,7 +8821,7 @@
         <v>797</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J155" s="5">
         <v>3</v>
@@ -8865,7 +8852,7 @@
         <v>797</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J156" s="5">
         <v>0</v>
@@ -8881,7 +8868,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
@@ -8987,10 +8974,10 @@
         <v>7</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J161" s="5" t="b">
         <v>1</v>
@@ -9079,7 +9066,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
@@ -9113,7 +9100,7 @@
         <v>797</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J166" s="5">
         <v>2</v>
@@ -9144,7 +9131,7 @@
         <v>797</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J167" s="5">
         <v>1</v>
@@ -9160,7 +9147,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -9291,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -9440,7 +9427,7 @@
         <v>4</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -9466,7 +9453,7 @@
         <v>4</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -9492,7 +9479,7 @@
         <v>13</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -9518,7 +9505,7 @@
         <v>13</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -9559,7 +9546,7 @@
         <v>802</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>526</v>
@@ -9583,7 +9570,7 @@
         <v>802</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>256</v>
@@ -9592,7 +9579,7 @@
         <v>4</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -9609,7 +9596,7 @@
         <v>802</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>529</v>
@@ -9633,7 +9620,7 @@
         <v>802</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>537</v>
@@ -9657,7 +9644,7 @@
         <v>802</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>360</v>
@@ -9666,7 +9653,7 @@
         <v>4</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -9683,7 +9670,7 @@
         <v>802</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>480</v>
@@ -9692,7 +9679,7 @@
         <v>4</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -9709,7 +9696,7 @@
         <v>802</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>523</v>
@@ -9733,7 +9720,7 @@
         <v>802</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>542</v>
@@ -9757,7 +9744,7 @@
         <v>802</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>543</v>
@@ -9766,7 +9753,7 @@
         <v>4</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
@@ -9783,7 +9770,7 @@
         <v>802</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>544</v>
@@ -9807,7 +9794,7 @@
         <v>802</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>545</v>
@@ -9816,7 +9803,7 @@
         <v>4</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -9833,7 +9820,7 @@
         <v>802</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>17</v>
@@ -9972,7 +9959,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
@@ -32498,27 +32485,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST938_ConfigurationOnDevice_properties.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST938_ConfigurationOnDevice_properties.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="853">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3781,29 +3781,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$GXT_2$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_5$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_5_NAME$</t>
+    <t>$SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_3$</t>
+    <t>$SNMP_GXT_2$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_4$</t>
+    <t>$SNMP_GXT_3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_5$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_5_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_4$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4756,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4939,7 +4949,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41071</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4998,11 +5008,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>812</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5029,10 +5037,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>812</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -5065,8 +5073,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5098,10 +5110,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5128,7 +5138,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5157,7 +5167,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5186,7 +5196,7 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5209,7 +5219,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5229,10 +5239,10 @@
         <v>799</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>800</v>
@@ -5248,7 +5258,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5274,10 +5284,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5299,7 +5309,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5326,11 +5336,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5358,9 +5366,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5387,7 +5397,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5415,6 +5425,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5431,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5689,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -6191,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6291,7 +6305,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6449,7 +6463,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6951,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7983,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -8083,7 +8097,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -8241,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -9278,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
